--- a/DataFile/WEBUI_demo.xlsx
+++ b/DataFile/WEBUI_demo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12875" windowWidth="17604"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12875" windowWidth="17604"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -39,13 +39,6 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <sz val="11"/>
@@ -54,6 +47,13 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -61,7 +61,31 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -69,6 +93,45 @@
       <name val="宋体"/>
       <charset val="0"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -83,29 +146,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -128,46 +169,14 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -182,24 +191,15 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill/>
     </fill>
@@ -208,7 +208,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -220,181 +388,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,63 +404,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -496,6 +433,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -510,6 +495,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
@@ -518,10 +512,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="6" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="21" fontId="21" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
@@ -530,160 +524,161 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="10" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="10" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="19" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="19" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="18" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="18" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="22" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="15" numFmtId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="9" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="9" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="3" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="23" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="14" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="29" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="34" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="34" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="33" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -1100,292 +1095,292 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="6.11111111111111"/>
-    <col customWidth="1" max="2" min="2" style="3" width="15.5555555555556"/>
-    <col customWidth="1" max="3" min="3" style="3" width="10.5555555555556"/>
-    <col customWidth="1" max="4" min="4" style="3" width="31.6666666666667"/>
-    <col customWidth="1" max="5" min="5" style="3" width="38.1111111111111"/>
-    <col customWidth="1" max="6" min="6" style="3" width="22.2222222222222"/>
-    <col customWidth="1" max="16384" min="7" style="3" width="9"/>
+    <col customWidth="1" max="1" min="1" style="5" width="6.11111111111111"/>
+    <col customWidth="1" max="2" min="2" style="5" width="15.5555555555556"/>
+    <col customWidth="1" max="3" min="3" style="5" width="10.5555555555556"/>
+    <col customWidth="1" max="4" min="4" style="5" width="31.6666666666667"/>
+    <col customWidth="1" max="5" min="5" style="5" width="38.1111111111111"/>
+    <col customWidth="1" max="6" min="6" style="5" width="22.2222222222222"/>
+    <col customWidth="1" max="16384" min="7" style="5" width="9"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>编号</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>事件</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>定位方法</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>元素路径</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>输入内容</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>描述</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>实际结果</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>open_browser</t>
         </is>
       </c>
-      <c r="C2" s="1" t="n"/>
-      <c r="D2" s="1" t="n"/>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Chrome</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>启动浏览器</t>
         </is>
       </c>
-      <c r="G2" s="1" t="n"/>
-      <c r="H2" s="1" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>visit</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>http://39.98.138.157/shopxo/</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>进入指定URL</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>wait_y</t>
         </is>
       </c>
-      <c r="C3" s="1" t="n"/>
-      <c r="D3" s="1" t="n"/>
-      <c r="E3" s="1" t="n">
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>设置隐式等待10秒</t>
         </is>
       </c>
-      <c r="G3" s="1" t="n"/>
-      <c r="H3" s="1" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>visit</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="n"/>
-      <c r="D4" s="1" t="n"/>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>http://39.98.138.157/shopxo/index.php</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>进入指定URL</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="n"/>
-      <c r="H4" s="1" t="n"/>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="2" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>click</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>//a[text()="登录"]</t>
         </is>
       </c>
-      <c r="E5" s="1" t="n"/>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>点击登录按钮</t>
         </is>
       </c>
-      <c r="G5" s="1" t="n"/>
-      <c r="H5" s="1" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>input</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>accounts</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>huangzijian</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>输入帐号</t>
         </is>
       </c>
-      <c r="G6" s="1" t="n"/>
-      <c r="H6" s="1" t="n"/>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="2" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>input</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>pwd</t>
         </is>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="2" t="n">
         <v>123456</v>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>输入密码</t>
         </is>
       </c>
-      <c r="G7" s="1" t="n"/>
-      <c r="H7" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="28.8" r="8" s="6">
-      <c r="A8" s="1" t="n">
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="28.8" r="8" s="1">
+      <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>click</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>/html/body/div[4]/div/div[2]/div[2]/form/div[3]/button</t>
         </is>
       </c>
-      <c r="E8" s="1" t="n"/>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>点击登录按钮</t>
         </is>
       </c>
-      <c r="G8" s="1" t="n"/>
-      <c r="H8" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="28.8" r="9" s="6">
-      <c r="A9" s="1" t="n">
+      <c r="G8" s="2" t="n"/>
+      <c r="H8" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="28.8" r="9" s="1">
+      <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>assert_text</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>//a[text()="退出"]</t>
         </is>
       </c>
-      <c r="E9" s="1" t="n"/>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>断言校验页面是否存在退出元素的按钮</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>退出</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr">
+      <c r="H9" s="8" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>quite</t>
         </is>
@@ -1393,8 +1388,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://39.98.138.157/shopxo/index.php" ref="E4" tooltip="http://39.98.138.157/shopxo/index.php" r:id="rId2"/>
-    <hyperlink display="http://39.98.138.157/shopxo/index.php" ref="E4" tooltip="http://39.98.138.157/shopxo/index.php" r:id="rId2"/>
+    <hyperlink display="http://39.98.138.157/shopxo/" ref="E3" tooltip="http://39.98.138.157/shopxo/" r:id="rId2"/>
+    <hyperlink display="http://39.98.138.157/shopxo/" ref="E3" tooltip="http://39.98.138.157/shopxo/" r:id="rId2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1409,57 +1404,57 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="6" width="21.1111111111111"/>
-    <col customWidth="1" max="3" min="3" style="6" width="15.7777777777778"/>
-    <col customWidth="1" max="4" min="4" style="6" width="20.1111111111111"/>
-    <col customWidth="1" max="5" min="5" style="6" width="25.8888888888889"/>
-    <col customWidth="1" max="6" min="6" style="6" width="20.7777777777778"/>
-    <col customWidth="1" max="7" min="7" style="6" width="13.5555555555556"/>
+    <col customWidth="1" max="2" min="2" style="1" width="21.1111111111111"/>
+    <col customWidth="1" max="3" min="3" style="1" width="15.7777777777778"/>
+    <col customWidth="1" max="4" min="4" style="1" width="20.1111111111111"/>
+    <col customWidth="1" max="5" min="5" style="1" width="25.8888888888889"/>
+    <col customWidth="1" max="6" min="6" style="1" width="20.7777777777778"/>
+    <col customWidth="1" max="7" min="7" style="1" width="13.5555555555556"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>编号</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>事件</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>定位方法</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>元素路径</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>输入内容</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>描述</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>实际结果</t>
         </is>
@@ -1469,19 +1464,19 @@
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>open_browser</t>
         </is>
       </c>
-      <c r="C2" s="1" t="n"/>
-      <c r="D2" s="1" t="n"/>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Chrome</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>启动浏览器</t>
         </is>
@@ -1491,19 +1486,21 @@
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>wait_y</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="n"/>
-      <c r="D3" s="1" t="n"/>
-      <c r="E3" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>设置隐式等待10秒</t>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>visit</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>http://www.baidu.com</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>进入指定URL</t>
         </is>
       </c>
     </row>
@@ -1511,21 +1508,19 @@
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>visit</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="n"/>
-      <c r="D4" s="1" t="n"/>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>http://www.baidu.com</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>进入指定URL</t>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>wait_y</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>设置隐式等待10秒</t>
         </is>
       </c>
     </row>
@@ -1601,7 +1596,7 @@
           <t>测试_百度搜索</t>
         </is>
       </c>
-      <c r="H8" s="8" t="inlineStr">
+      <c r="H8" s="9" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -1619,8 +1614,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://www.baidu.com" ref="E4" tooltip="http://www.baidu.com" r:id="rId2"/>
-    <hyperlink display="http://www.baidu.com" ref="E4" tooltip="http://www.baidu.com" r:id="rId2"/>
+    <hyperlink display="http://www.baidu.com" ref="E3" tooltip="http://www.baidu.com" r:id="rId2"/>
+    <hyperlink display="http://www.baidu.com" ref="E3" tooltip="http://www.baidu.com" r:id="rId2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/DataFile/WEBUI_demo.xlsx
+++ b/DataFile/WEBUI_demo.xlsx
@@ -6,8 +6,8 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12875" windowWidth="17604"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="商城登录" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="百度搜索" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -61,8 +61,45 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -70,7 +107,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -92,15 +129,15 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -115,15 +152,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -131,22 +160,22 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -167,35 +196,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -208,37 +208,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,43 +370,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,97 +388,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,11 +409,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -437,46 +474,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,15 +504,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
@@ -512,10 +512,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="21" fontId="21" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="16" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
@@ -524,133 +524,133 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="10" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="5" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="16" numFmtId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="12" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="12" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="19" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="3" fillId="0" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="9" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="9" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="3" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="23" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1096,7 +1096,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -1405,7 +1405,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>

--- a/DataFile/WEBUI_demo.xlsx
+++ b/DataFile/WEBUI_demo.xlsx
@@ -3,11 +3,11 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12875" windowWidth="17604"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13740" windowWidth="30720"/>
   </bookViews>
   <sheets>
     <sheet name="商城登录" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="百度搜索" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -35,6 +35,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -48,7 +49,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -61,7 +61,100 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -76,82 +169,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -174,32 +191,15 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill/>
     </fill>
@@ -208,13 +208,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFAACF91"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -226,132 +388,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -364,37 +400,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
+        <fgColor rgb="00AACF91"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -407,26 +418,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -434,8 +436,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,7 +476,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,17 +507,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,10 +523,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="16" fontId="15" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="15" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
@@ -524,161 +535,165 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="22" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="10" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="10" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="19" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="23" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="23" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="5" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="12" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="12" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="19" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="34" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="34" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="35" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="33" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="35" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -1093,10 +1108,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -1111,276 +1126,396 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>编号</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>事件</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>定位方法</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>元素路径</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>输入内容</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>内容</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>描述</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>实际结果</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>open_browser</t>
         </is>
       </c>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="C2" s="1" t="n"/>
+      <c r="D2" s="1" t="n"/>
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>Chrome</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>启动浏览器</t>
         </is>
       </c>
-      <c r="G2" s="2" t="n"/>
-      <c r="H2" s="2" t="n"/>
+      <c r="G2" s="1" t="n"/>
+      <c r="H2" s="1" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>visit</t>
         </is>
       </c>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="6" t="inlineStr">
+      <c r="C3" s="1" t="n"/>
+      <c r="D3" s="1" t="n"/>
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>http://39.98.138.157/shopxo/</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>进入指定URL</t>
         </is>
       </c>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
+      <c r="G3" s="1" t="n"/>
+      <c r="H3" s="1" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>wait_y</t>
         </is>
       </c>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n">
+      <c r="C4" s="1" t="n"/>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F4" s="1" t="inlineStr">
         <is>
           <t>设置隐式等待10秒</t>
         </is>
       </c>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
+      <c r="G4" s="1" t="n"/>
+      <c r="H4" s="1" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>click</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D5" s="1" t="inlineStr">
         <is>
           <t>//a[text()="登录"]</t>
         </is>
       </c>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="E5" s="1" t="n"/>
+      <c r="F5" s="1" t="inlineStr">
         <is>
           <t>点击登录按钮</t>
         </is>
       </c>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
+      <c r="G5" s="1" t="n"/>
+      <c r="H5" s="1" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>input</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D6" s="1" t="inlineStr">
         <is>
           <t>accounts</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="E6" s="1" t="inlineStr">
         <is>
           <t>huangzijian</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="F6" s="1" t="inlineStr">
         <is>
           <t>输入帐号</t>
         </is>
       </c>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
+      <c r="G6" s="1" t="n"/>
+      <c r="H6" s="1" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>input</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D7" s="1" t="inlineStr">
         <is>
           <t>pwd</t>
         </is>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="1" t="n">
         <v>123456</v>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="F7" s="1" t="inlineStr">
         <is>
           <t>输入密码</t>
         </is>
       </c>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="28.8" r="8" s="1">
-      <c r="A8" s="2" t="n">
+      <c r="G7" s="1" t="n"/>
+      <c r="H7" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="28.8" r="8" s="7">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>click</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" s="1" t="inlineStr">
         <is>
           <t>/html/body/div[4]/div/div[2]/div[2]/form/div[3]/button</t>
         </is>
       </c>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="E8" s="1" t="n"/>
+      <c r="F8" s="1" t="inlineStr">
         <is>
           <t>点击登录按钮</t>
         </is>
       </c>
-      <c r="G8" s="2" t="n"/>
-      <c r="H8" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="28.8" r="9" s="1">
-      <c r="A9" s="2" t="n">
+      <c r="G8" s="1" t="n"/>
+      <c r="H8" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="28.8" r="9" s="7">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>assert_text</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D9" s="1" t="inlineStr">
         <is>
           <t>//a[text()="退出"]</t>
         </is>
       </c>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="E9" s="1" t="n"/>
+      <c r="F9" s="1" t="inlineStr">
         <is>
           <t>断言校验页面是否存在退出元素的按钮</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="G9" s="1" t="inlineStr">
         <is>
           <t>退出</t>
         </is>
       </c>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>visit</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="n"/>
+      <c r="D10" s="1" t="n"/>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>http://www.baidu.com</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="inlineStr">
+        <is>
+          <t>进入指定URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>wait_y</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="n"/>
+      <c r="D11" s="1" t="n"/>
+      <c r="E11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="inlineStr">
+        <is>
+          <t>设置隐式等待10秒</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>input</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>kw</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>su</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>assert_title</t>
+        </is>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>测试_百度搜索</t>
+        </is>
+      </c>
+      <c r="H15" s="9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
         <is>
           <t>quite</t>
         </is>
@@ -1388,8 +1523,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://39.98.138.157/shopxo/" ref="E3" tooltip="http://39.98.138.157/shopxo/" r:id="rId2"/>
-    <hyperlink display="http://39.98.138.157/shopxo/" ref="E3" tooltip="http://39.98.138.157/shopxo/" r:id="rId2"/>
+    <hyperlink display="http://39.98.138.157/shopxo/" ref="E3" tooltip="http://39.98.138.157/shopxo/" r:id="rId7"/>
+    <hyperlink display="http://www.baidu.com" ref="E10" tooltip="http://www.baidu.com" r:id="rId8"/>
+    <hyperlink display="http://39.98.138.157/shopxo/" ref="E3" tooltip="http://39.98.138.157/shopxo/" r:id="rId7"/>
+    <hyperlink display="http://www.baidu.com" ref="E10" tooltip="http://www.baidu.com" r:id="rId8"/>
+    <hyperlink display="http://39.98.138.157/shopxo/" ref="E3" tooltip="http://39.98.138.157/shopxo/" r:id="rId7"/>
+    <hyperlink display="http://www.baidu.com" ref="E10" tooltip="http://www.baidu.com" r:id="rId8"/>
+    <hyperlink display="http://39.98.138.157/shopxo/" ref="E3" tooltip="http://39.98.138.157/shopxo/" r:id="rId7"/>
+    <hyperlink display="http://www.baidu.com" ref="E10" tooltip="http://www.baidu.com" r:id="rId8"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1402,222 +1543,441 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="1" width="21.1111111111111"/>
-    <col customWidth="1" max="3" min="3" style="1" width="15.7777777777778"/>
-    <col customWidth="1" max="4" min="4" style="1" width="20.1111111111111"/>
-    <col customWidth="1" max="5" min="5" style="1" width="25.8888888888889"/>
-    <col customWidth="1" max="6" min="6" style="1" width="20.7777777777778"/>
-    <col customWidth="1" max="7" min="7" style="1" width="13.5555555555556"/>
+    <col customWidth="1" max="1" min="1" style="7" width="8.77777777777778"/>
+    <col customWidth="1" max="2" min="2" style="7" width="15.5555555555556"/>
+    <col customWidth="1" max="3" min="3" style="7" width="10.7777777777778"/>
+    <col customWidth="1" max="4" min="4" style="7" width="64.1111111111111"/>
+    <col customWidth="1" max="5" min="5" style="7" width="32.2222222222222"/>
+    <col customWidth="1" max="6" min="6" style="7" width="35.7777777777778"/>
+    <col customWidth="1" max="7" min="7" style="7" width="16.7777777777778"/>
+    <col customWidth="1" max="8" min="8" style="7" width="14.4444444444444"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>编号</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>事件</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>定位方法</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>元素路径</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>输入内容</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>内容</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>描述</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>实际结果</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="n">
+    <row customHeight="1" ht="28.8" r="2" s="7">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>open_browser</t>
         </is>
       </c>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="C2" s="1" t="n"/>
+      <c r="D2" s="1" t="n"/>
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>Chrome</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>启动浏览器</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="n">
+      <c r="G2" s="1" t="n"/>
+      <c r="H2" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="57.6" r="3" s="7">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>visit</t>
         </is>
       </c>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="C3" s="1" t="n"/>
+      <c r="D3" s="1" t="n"/>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>http://39.98.138.157/shopxo/</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>进入指定URL</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="n"/>
+      <c r="H3" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="28.8" r="4" s="7">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>wait_y</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n"/>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>设置隐式等待10秒</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="n"/>
+      <c r="H4" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="43.2" r="5" s="7">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>//a[text()="登录"]</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="n"/>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>点击登录按钮</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="n"/>
+      <c r="H5" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="28.8" r="6" s="7">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>input</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>accounts</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>huangzijian</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>输入帐号</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="n"/>
+      <c r="H6" s="1" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>input</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>pwd</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>123456</v>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>输入密码</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="n"/>
+      <c r="H7" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="115.2" r="8" s="7">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>/html/body/div[4]/div/div[2]/div[2]/form/div[3]/button</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="n"/>
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t>点击登录按钮</t>
+        </is>
+      </c>
+      <c r="G8" s="1" t="n"/>
+      <c r="H8" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="72" r="9" s="7">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>assert_text</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>//a[text()="退出"]</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="n"/>
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t>断言校验页面是否存在退出元素的按钮</t>
+        </is>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>退出123</t>
+        </is>
+      </c>
+      <c r="H9" s="10" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="43.2" r="10" s="7">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>visit</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="n"/>
+      <c r="D10" s="1" t="n"/>
+      <c r="E10" s="4" t="inlineStr">
         <is>
           <t>http://www.baidu.com</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F10" s="1" t="inlineStr">
         <is>
           <t>进入指定URL</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="G10" s="5" t="n"/>
+      <c r="H10" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="28.8" r="11" s="7">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>wait_y</t>
         </is>
       </c>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n">
+      <c r="C11" s="1" t="n"/>
+      <c r="D11" s="1" t="n"/>
+      <c r="E11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F11" s="1" t="inlineStr">
         <is>
           <t>设置隐式等待10秒</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
+      <c r="G11" s="5" t="n"/>
+      <c r="H11" s="5" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
         <is>
           <t>input</t>
         </is>
       </c>
-      <c r="C5" s="0" t="inlineStr">
+      <c r="C12" s="0" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="D5" s="0" t="inlineStr">
+      <c r="D12" s="0" t="inlineStr">
         <is>
           <t>kw</t>
         </is>
       </c>
-      <c r="E5" s="0" t="inlineStr">
+      <c r="E12" s="0" t="inlineStr">
         <is>
           <t>测试</t>
         </is>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="n">
+      <c r="F12" s="5" t="n"/>
+      <c r="G12" s="5" t="n"/>
+      <c r="H12" s="5" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>su</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="n"/>
+      <c r="F13" s="5" t="n"/>
+      <c r="G13" s="5" t="n"/>
+      <c r="H13" s="5" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n"/>
+      <c r="D14" s="5" t="n"/>
+      <c r="E14" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="D6" s="0" t="inlineStr">
-        <is>
-          <t>su</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
+      <c r="F14" s="5" t="n"/>
+      <c r="G14" s="5" t="n"/>
+      <c r="H14" s="5" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
         <is>
           <t>assert_title</t>
         </is>
       </c>
-      <c r="G8" s="0" t="inlineStr">
-        <is>
-          <t>测试_百度搜索</t>
-        </is>
-      </c>
-      <c r="H8" s="9" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>quite</t>
+      <c r="C15" s="5" t="n"/>
+      <c r="D15" s="5" t="n"/>
+      <c r="E15" s="5" t="n"/>
+      <c r="F15" s="5" t="n"/>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>测试123_百度搜索</t>
+        </is>
+      </c>
+      <c r="H15" s="11" t="inlineStr">
+        <is>
+          <t>FALSE</t>
         </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://www.baidu.com" ref="E3" tooltip="http://www.baidu.com" r:id="rId2"/>
-    <hyperlink display="http://www.baidu.com" ref="E3" tooltip="http://www.baidu.com" r:id="rId2"/>
+    <hyperlink display="http://39.98.138.157/shopxo/" ref="E3" tooltip="http://39.98.138.157/shopxo/" r:id="rId7"/>
+    <hyperlink display="http://www.baidu.com" ref="E10" tooltip="http://www.baidu.com" r:id="rId8"/>
+    <hyperlink display="http://39.98.138.157/shopxo/" ref="E3" tooltip="http://39.98.138.157/shopxo/" r:id="rId7"/>
+    <hyperlink display="http://www.baidu.com" ref="E10" tooltip="http://www.baidu.com" r:id="rId8"/>
+    <hyperlink display="http://39.98.138.157/shopxo/" ref="E3" tooltip="http://39.98.138.157/shopxo/" r:id="rId7"/>
+    <hyperlink display="http://www.baidu.com" ref="E10" tooltip="http://www.baidu.com" r:id="rId8"/>
+    <hyperlink display="http://39.98.138.157/shopxo/" ref="E3" tooltip="http://39.98.138.157/shopxo/" r:id="rId7"/>
+    <hyperlink display="http://www.baidu.com" ref="E10" tooltip="http://www.baidu.com" r:id="rId8"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>